--- a/xlsx/佛兰西斯·史考特·基·费兹杰罗_intext.xlsx
+++ b/xlsx/佛兰西斯·史考特·基·费兹杰罗_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
   <si>
     <t>佛兰西斯·史考特·基·费兹杰罗</t>
   </si>
@@ -26,22 +26,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_佛兰西斯·史考特·基·费兹杰罗</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_佛兰西斯·史考特·基·费兹杰罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E4%BF%9D%E7%BE%85%E5%B8%82</t>
   </si>
   <si>
-    <t>聖保羅市</t>
+    <t>圣保罗市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%AA%AA%E5%AE%B6</t>
   </si>
   <si>
-    <t>小說家</t>
+    <t>小说家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%B7%E6%83%98%E7%9A%84%E4%B8%80%E4%BB%A3</t>
@@ -83,19 +83,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E7%AF%87%E5%B0%8F%E8%AA%AA</t>
   </si>
   <si>
-    <t>長篇小說</t>
+    <t>长篇小说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%AD%E7%AF%87%E5%B0%8F%E8%AA%AA</t>
   </si>
   <si>
-    <t>短篇小說</t>
+    <t>短篇小说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>律師</t>
+    <t>律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%86%E4%B8%8D%E8%B5%B7%E7%9A%84%E7%9B%96%E8%8C%A8%E6%AF%94</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%B7%9E</t>
   </si>
   <si>
-    <t>馬里蘭州</t>
+    <t>马里兰州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E7%89%9B%E5%9F%8E</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>文學</t>
+    <t>文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9D%E6%B4%81</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E4%BF%9D%E7%BE%85</t>
   </si>
   <si>
-    <t>聖保羅</t>
+    <t>圣保罗</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/St._Paul_Academy_and_Summit_School</t>
@@ -173,9 +173,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%9E%97%E6%96%AF%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>普林斯頓大學</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Edmund_Wilson</t>
   </si>
   <si>
@@ -197,19 +194,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%9C%98</t>
   </si>
   <si>
-    <t>社團</t>
+    <t>社团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%93%A5%E9%A6%AC%E5%88%A9</t>
   </si>
   <si>
-    <t>蒙哥馬利</t>
+    <t>蒙哥马利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>軍事</t>
+    <t>军事</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/This_Side_of_Paradise</t>
@@ -221,7 +218,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E7%88%BE%E5%A6%B2%C2%B7%E8%8E%8E%E7%88%BE</t>
   </si>
   <si>
-    <t>賽爾妲·莎爾</t>
+    <t>赛尔妲·莎尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%B7%B4%E7%89%B9%E9%87%8C%E7%88%B5%E4%B8%BB%E6%95%99%E5%BA%A7%E5%A0%82_(%E7%BA%BD%E7%BA%A6)</t>
@@ -233,7 +230,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E5%85%92</t>
   </si>
   <si>
-    <t>女兒</t>
+    <t>女儿</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Frances_Scott_Fitzgerald</t>
@@ -251,13 +248,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%85%A7%E6%96%AF%E7%89%B9%C2%B7%E6%B5%B7%E6%98%8E%E5%A8%81</t>
   </si>
   <si>
-    <t>歐內斯特·海明威</t>
+    <t>欧内斯特·海明威</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%A8%E5%8A%87</t>
   </si>
   <si>
-    <t>編劇</t>
+    <t>编剧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E8%90%A8%E5%AD%A6%E9%99%A2</t>
@@ -269,7 +266,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%BE%8C%E7%9A%84%E5%A4%A7%E4%BA%A8</t>
   </si>
   <si>
-    <t>最後的大亨</t>
+    <t>最后的大亨</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sheilah_Graham</t>
@@ -287,19 +284,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%AA%95%E7%AF%80</t>
   </si>
   <si>
-    <t>聖誕節</t>
+    <t>圣诞节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E8%87%9F%E7%97%85</t>
   </si>
   <si>
-    <t>心臟病</t>
+    <t>心脏病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%90%8A%E5%A1%A2</t>
   </si>
   <si>
-    <t>好萊塢</t>
+    <t>好莱坞</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dorothy_Parker</t>
@@ -311,7 +308,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>北卡羅來納州</t>
+    <t>北卡罗来纳州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Beautiful_and_Damned</t>
@@ -419,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%82%91%E6%98%8E%E7%9A%84%E5%A5%87%E5%B9%BB%E6%97%85%E7%A8%8B_(%E7%9F%AD%E7%AF%87%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
-    <t>班傑明的奇幻旅程 (短篇小說)</t>
+    <t>班杰明的奇幻旅程 (短篇小说)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%AC%E5%A4%A9%E7%9A%84%E6%A2%A6</t>
@@ -509,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E7%9B%AE%E9%8C%84</t>
   </si>
   <si>
-    <t>聯合目錄</t>
+    <t>联合目录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Find_A_Grave</t>
@@ -521,7 +518,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -539,7 +536,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -557,7 +554,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -581,13 +578,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1710,7 +1707,7 @@
         <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1736,10 +1733,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1765,10 +1762,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1794,10 +1791,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1823,10 +1820,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1852,10 +1849,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1881,10 +1878,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1910,10 +1907,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>3</v>
@@ -1939,10 +1936,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>4</v>
@@ -1968,10 +1965,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1997,10 +1994,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>3</v>
@@ -2026,10 +2023,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2055,10 +2052,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2084,10 +2081,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2113,10 +2110,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2142,10 +2139,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2171,10 +2168,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>4</v>
@@ -2200,10 +2197,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2229,10 +2226,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2258,10 +2255,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2287,10 +2284,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2316,10 +2313,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2345,10 +2342,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2374,10 +2371,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2403,10 +2400,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2432,10 +2429,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2461,10 +2458,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2490,10 +2487,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>4</v>
@@ -2519,10 +2516,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2548,10 +2545,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -2577,10 +2574,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>6</v>
@@ -2606,10 +2603,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>6</v>
@@ -2635,10 +2632,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -2664,10 +2661,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>5</v>
@@ -2693,10 +2690,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -2722,10 +2719,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -2751,10 +2748,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -2780,10 +2777,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -2809,10 +2806,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2838,10 +2835,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -2867,10 +2864,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -2896,10 +2893,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2925,10 +2922,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2954,10 +2951,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -2983,10 +2980,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3012,10 +3009,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3041,10 +3038,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3070,10 +3067,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>7</v>
@@ -3099,10 +3096,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3128,10 +3125,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3157,10 +3154,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3186,10 +3183,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>3</v>
@@ -3215,10 +3212,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>3</v>
@@ -3244,10 +3241,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3273,10 +3270,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3302,10 +3299,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3331,10 +3328,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3360,10 +3357,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3389,10 +3386,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>5</v>
@@ -3418,10 +3415,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3447,10 +3444,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3476,10 +3473,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3505,10 +3502,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3534,10 +3531,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3563,10 +3560,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3592,10 +3589,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3621,10 +3618,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3650,10 +3647,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3679,10 +3676,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3708,10 +3705,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3737,10 +3734,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3766,10 +3763,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -3795,10 +3792,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3824,10 +3821,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>10</v>
@@ -3853,10 +3850,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F100" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
